--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,37 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>waste</t>
   </si>
   <si>
     <t>cheap</t>
@@ -91,279 +88,282 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>gift</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>baking</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +803,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -850,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7407407407407407</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -868,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -892,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -900,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6521739130434783</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -918,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -950,37 +953,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.625</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K6">
-        <v>0.8668730650154799</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4150943396226415</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1050,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3737373737373738</v>
+        <v>0.38</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1068,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.7272727272727273</v>
@@ -1100,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3643410852713178</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1118,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1150,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.7056277056277056</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1192,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1200,13 +1203,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.6915254237288135</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L11">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2352941176470588</v>
+        <v>0.1747572815533981</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.6896551724137931</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1675675675675676</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1318,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.647887323943662</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1666666666666667</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.6460674157303371</v>
+        <v>0.6508828250401284</v>
       </c>
       <c r="L14">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="M14">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,13 +1403,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.145631067961165</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1418,69 +1421,45 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="L15">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>180</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.6307692307692307</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1492,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.5735294117647058</v>
+      </c>
+      <c r="L19">
         <v>39</v>
       </c>
-      <c r="K19">
-        <v>0.5961538461538461</v>
-      </c>
-      <c r="L19">
-        <v>62</v>
-      </c>
       <c r="M19">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.5771428571428572</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L20">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.5641025641025641</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.5568862275449101</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1648,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.543859649122807</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1700,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1726,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5421686746987951</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1752,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5138888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1778,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1804,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4901960784313725</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1830,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4705882352941176</v>
+        <v>0.48</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1856,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.463855421686747</v>
+        <v>0.46875</v>
       </c>
       <c r="L31">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1882,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4605263157894737</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1908,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1934,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.443609022556391</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1960,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.41</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1986,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4068627450980392</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L36">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="M36">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2012,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>242</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2038,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3735408560311284</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L38">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2064,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.3589041095890411</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L39">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2090,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>468</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.3513513513513514</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2116,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.3442622950819672</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2142,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3381294964028777</v>
+        <v>0.375</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2168,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3308270676691729</v>
+        <v>0.3726027397260274</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2194,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>89</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3265306122448979</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2220,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3265306122448979</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2246,12 +2225,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46">
         <v>0.3225806451612903</v>
@@ -2277,16 +2256,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47">
         <v>0.3214285714285715</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2298,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.2962962962962963</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2324,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.291866028708134</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L49">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2350,21 +2329,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.2871287128712871</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2376,21 +2355,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.2794117647058824</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2402,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.2727272727272727</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2428,21 +2407,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.271523178807947</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2454,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.2701829924650161</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="M54">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2480,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>678</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.25</v>
+        <v>0.2769396551724138</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2503,24 +2482,24 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>81</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2532,21 +2511,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.2432432432432433</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2558,47 +2537,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.2410714285714286</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59">
-        <v>0.2282608695652174</v>
+        <v>0.2237851662404092</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2610,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>71</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K60">
-        <v>0.2261904761904762</v>
+        <v>0.2225165562913907</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2636,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>65</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>0.2251655629139073</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L61">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2662,47 +2641,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>585</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K62">
-        <v>0.2161125319693095</v>
+        <v>0.2038043478260869</v>
       </c>
       <c r="L62">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="M62">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>613</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63">
         <v>0.2</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2714,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>0.1973684210526316</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2740,47 +2719,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65">
-        <v>0.1951219512195122</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L65">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M65">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>0.1943573667711599</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L66">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2792,73 +2771,73 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>257</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K67">
-        <v>0.1768292682926829</v>
+        <v>0.1875</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>0.1674641148325359</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L68">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>348</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K69">
-        <v>0.1623931623931624</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2870,21 +2849,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K70">
-        <v>0.162280701754386</v>
+        <v>0.168859649122807</v>
       </c>
       <c r="L70">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M70">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2896,47 +2875,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K71">
-        <v>0.1615384615384615</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>0.1610738255033557</v>
+        <v>0.1581508515815085</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2948,15 +2927,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>125</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K73">
-        <v>0.1518518518518518</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L73">
         <v>41</v>
@@ -2974,47 +2953,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K74">
-        <v>0.15</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K75">
-        <v>0.1476014760147601</v>
+        <v>0.1479713603818616</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M75">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3026,21 +3005,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>231</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K76">
-        <v>0.147239263803681</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L76">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3052,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K77">
-        <v>0.1386363636363636</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L77">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M77">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3078,47 +3057,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K78">
-        <v>0.1343283582089552</v>
+        <v>0.1434599156118143</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M78">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K79">
-        <v>0.1305841924398626</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L79">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3130,21 +3109,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>253</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K80">
-        <v>0.1299435028248588</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3156,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K81">
-        <v>0.1289537712895377</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L81">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3182,47 +3161,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>358</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K82">
-        <v>0.128</v>
+        <v>0.12</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83">
-        <v>0.1218487394957983</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L83">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3234,12 +3213,12 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>209</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K84">
         <v>0.1153846153846154</v>
@@ -3265,42 +3244,42 @@
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K85">
-        <v>0.09925093632958802</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L85">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>962</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K86">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3312,319 +3291,371 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K87">
-        <v>0.08776978417266187</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L87">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M87">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>634</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K88">
-        <v>0.0821917808219178</v>
+        <v>0.108411214953271</v>
       </c>
       <c r="L88">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M88">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="N88">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>335</v>
+        <v>954</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K89">
-        <v>0.08064516129032258</v>
+        <v>0.09469153515064563</v>
       </c>
       <c r="L89">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M89">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>228</v>
+        <v>631</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K90">
-        <v>0.07804878048780488</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="L90">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N90">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>189</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K91">
-        <v>0.06839186691312385</v>
+        <v>0.07868020304568528</v>
       </c>
       <c r="L91">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M91">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>504</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K92">
-        <v>0.06617647058823529</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K93">
-        <v>0.05892547660311959</v>
+        <v>0.06457564575645756</v>
       </c>
       <c r="L93">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M93">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="N93">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>1086</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K94">
-        <v>0.04580152671755725</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N94">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>375</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K95">
-        <v>0.04155124653739612</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N95">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>346</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K96">
-        <v>0.04116222760290557</v>
+        <v>0.05622837370242215</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M96">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N96">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O96">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>396</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K97">
-        <v>0.04046242774566474</v>
+        <v>0.05326876513317191</v>
       </c>
       <c r="L97">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M97">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N97">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O97">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>498</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K98">
+        <v>0.03468208092485549</v>
+      </c>
+      <c r="L98">
+        <v>18</v>
+      </c>
+      <c r="M98">
+        <v>21</v>
+      </c>
+      <c r="N98">
+        <v>0.86</v>
+      </c>
+      <c r="O98">
+        <v>0.14</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K98">
-        <v>0.02774108322324967</v>
-      </c>
-      <c r="L98">
-        <v>21</v>
-      </c>
-      <c r="M98">
-        <v>31</v>
-      </c>
-      <c r="N98">
-        <v>0.68</v>
-      </c>
-      <c r="O98">
-        <v>0.32</v>
-      </c>
-      <c r="P98" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q98">
-        <v>736</v>
+      <c r="K99">
+        <v>0.02906208718626156</v>
+      </c>
+      <c r="L99">
+        <v>22</v>
+      </c>
+      <c r="M99">
+        <v>32</v>
+      </c>
+      <c r="N99">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O99">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K100">
+        <v>0.02054794520547945</v>
+      </c>
+      <c r="L100">
+        <v>15</v>
+      </c>
+      <c r="M100">
+        <v>20</v>
+      </c>
+      <c r="N100">
+        <v>0.75</v>
+      </c>
+      <c r="O100">
+        <v>0.25</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
